--- a/Assets/Beazley_Model.xlsx
+++ b/Assets/Beazley_Model.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/172d18bf1d83e45f/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/172d18bf1d83e45f/Desktop/Personal Website/Singh/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B625E2ED-FCF2-4759-A311-30E959CD4E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{B625E2ED-FCF2-4759-A311-30E959CD4E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA6F5625-B42F-46D6-947B-AEEF1C04B5BF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="1" xr2:uid="{06E69E23-C7F3-4D4A-8434-45C31EF57982}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{06E69E23-C7F3-4D4A-8434-45C31EF57982}"/>
   </bookViews>
   <sheets>
     <sheet name="Model Financial Statements" sheetId="1" r:id="rId1"/>
@@ -1049,7 +1049,7 @@
     <xf numFmtId="41" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1209,23 +1209,13 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="7"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1233,28 +1223,25 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Heading for Main" xfId="6" xr:uid="{D74607A8-9152-4D2B-8191-804F9581171C}"/>
@@ -1598,7 +1585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5977D564-D1E6-1B4B-B221-B1A3C2697E2D}">
   <dimension ref="A1:P136"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A23" zoomScale="70" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A90" zoomScale="70" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D147" sqref="D147"/>
     </sheetView>
   </sheetViews>
@@ -1664,21 +1651,21 @@
       <c r="A3" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="118"/>
-      <c r="P3" s="118"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="141"/>
+      <c r="M3" s="140"/>
+      <c r="N3" s="141"/>
+      <c r="O3" s="141"/>
+      <c r="P3" s="141"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="62" t="s">
@@ -1765,23 +1752,23 @@
       <c r="O6" s="69"/>
       <c r="P6" s="69"/>
     </row>
-    <row r="7" spans="1:16" s="152" customFormat="1" ht="18">
-      <c r="A7" s="148"/>
-      <c r="B7" s="149"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="151"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="150"/>
-      <c r="K7" s="150"/>
-      <c r="L7" s="150"/>
-      <c r="M7" s="150"/>
-      <c r="N7" s="150"/>
-      <c r="O7" s="150"/>
-      <c r="P7" s="150"/>
+    <row r="7" spans="1:16" s="139" customFormat="1" ht="18">
+      <c r="A7" s="74"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
+      <c r="O7" s="137"/>
+      <c r="P7" s="137"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="87"/>
@@ -1903,8 +1890,8 @@
       <c r="O12" s="62"/>
       <c r="P12" s="62"/>
     </row>
-    <row r="13" spans="1:16" s="125" customFormat="1" ht="18">
-      <c r="A13" s="123" t="s">
+    <row r="13" spans="1:16" s="121" customFormat="1" ht="18">
+      <c r="A13" s="119" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="86">
@@ -1923,17 +1910,17 @@
         <f>Schedule!E25</f>
         <v>5678.1</v>
       </c>
-      <c r="F13" s="123"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="123"/>
-      <c r="L13" s="123"/>
-      <c r="M13" s="123"/>
-      <c r="N13" s="123"/>
-      <c r="O13" s="123"/>
-      <c r="P13" s="123"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="119"/>
+      <c r="M13" s="119"/>
+      <c r="N13" s="119"/>
+      <c r="O13" s="119"/>
+      <c r="P13" s="119"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="62"/>
@@ -2092,23 +2079,23 @@
       <c r="O19" s="62"/>
       <c r="P19" s="62"/>
     </row>
-    <row r="20" spans="1:16" s="126" customFormat="1" ht="21">
-      <c r="A20" s="126" t="s">
+    <row r="20" spans="1:16" s="122" customFormat="1" ht="21">
+      <c r="A20" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="126">
+      <c r="B20" s="122">
         <f>Schedule!B57</f>
         <v>3346.3</v>
       </c>
-      <c r="C20" s="126">
+      <c r="C20" s="122">
         <f>Schedule!C57</f>
         <v>3466.6</v>
       </c>
-      <c r="D20" s="126">
+      <c r="D20" s="122">
         <f>Schedule!D57</f>
         <v>6001.1</v>
       </c>
-      <c r="E20" s="126">
+      <c r="E20" s="122">
         <f>Schedule!E57</f>
         <v>6358.4999999999991</v>
       </c>
@@ -2234,8 +2221,8 @@
       <c r="O25" s="74"/>
       <c r="P25" s="74"/>
     </row>
-    <row r="26" spans="1:16" s="127" customFormat="1" ht="21">
-      <c r="A26" s="127" t="s">
+    <row r="26" spans="1:16" s="123" customFormat="1" ht="21">
+      <c r="A26" s="123" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2346,19 +2333,19 @@
       <c r="A32" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="B32" s="122">
+      <c r="B32" s="63">
         <f>Schedule!B65</f>
         <v>1826.1999999999998</v>
       </c>
-      <c r="C32" s="122">
+      <c r="C32" s="63">
         <f>Schedule!C65</f>
         <v>1956.4</v>
       </c>
-      <c r="D32" s="122">
+      <c r="D32" s="63">
         <f>Schedule!D65</f>
         <v>1689.1000000000001</v>
       </c>
-      <c r="E32" s="122">
+      <c r="E32" s="63">
         <f>Schedule!E65</f>
         <v>2128.6</v>
       </c>
@@ -2378,19 +2365,19 @@
       <c r="A33" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="122">
+      <c r="B33" s="63">
         <f>Schedule!B73</f>
         <v>821.8</v>
       </c>
-      <c r="C33" s="122">
+      <c r="C33" s="63">
         <f>Schedule!C73</f>
         <v>952.1</v>
       </c>
-      <c r="D33" s="122">
+      <c r="D33" s="63">
         <f>Schedule!D73</f>
         <v>1359</v>
       </c>
-      <c r="E33" s="122">
+      <c r="E33" s="63">
         <f>Schedule!E73</f>
         <v>1553.7</v>
       </c>
@@ -3733,7 +3720,7 @@
       <c r="C83" s="47">
         <v>2634.2</v>
       </c>
-      <c r="D83" s="144">
+      <c r="D83" s="135">
         <v>1431.9</v>
       </c>
       <c r="E83" s="40">
@@ -4505,7 +4492,7 @@
       <c r="A116" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="B116" s="145">
+      <c r="B116">
         <v>-4.5</v>
       </c>
       <c r="C116" s="62">
@@ -4528,7 +4515,7 @@
       <c r="A117" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="B117" s="145">
+      <c r="B117">
         <v>-17.7</v>
       </c>
       <c r="C117">
@@ -4551,7 +4538,7 @@
       <c r="A118" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="B118" s="145">
+      <c r="B118">
         <v>-7979.1</v>
       </c>
       <c r="C118" s="62">
@@ -4574,7 +4561,7 @@
       <c r="A119" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="B119" s="145">
+      <c r="B119">
         <v>7037.1</v>
       </c>
       <c r="C119" s="62">
@@ -4597,7 +4584,7 @@
       <c r="A120" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="B120" s="145">
+      <c r="B120">
         <v>54.4</v>
       </c>
       <c r="C120" s="62">
@@ -4620,7 +4607,7 @@
       <c r="A121" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="B121" s="145">
+      <c r="B121">
         <v>70.599999999999994</v>
       </c>
       <c r="C121" s="62">
@@ -4643,16 +4630,16 @@
       <c r="A122" s="91" t="s">
         <v>181</v>
       </c>
-      <c r="B122" s="146">
+      <c r="B122" s="22">
         <f>SUM(B116:B121)</f>
         <v>-839.19999999999982</v>
       </c>
-      <c r="C122" s="146">
+      <c r="C122" s="22">
         <f>SUM(C116:C121)</f>
         <v>-1249.5999999999992</v>
       </c>
-      <c r="D122" s="146"/>
-      <c r="E122" s="146"/>
+      <c r="D122" s="22"/>
+      <c r="E122" s="22"/>
       <c r="F122" s="91"/>
       <c r="G122" s="100"/>
       <c r="H122" s="91"/>
@@ -4706,16 +4693,16 @@
       <c r="A125" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="B125" s="145">
-        <v>0</v>
-      </c>
-      <c r="C125" s="145">
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
         <v>-17.8</v>
       </c>
-      <c r="D125" s="145">
+      <c r="D125">
         <v>-33.6</v>
       </c>
-      <c r="E125" s="145">
+      <c r="E125">
         <v>-14</v>
       </c>
       <c r="F125" s="62"/>
@@ -4733,16 +4720,16 @@
       <c r="A126" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="B126" s="145">
+      <c r="B126">
         <v>-12.8</v>
       </c>
-      <c r="C126" s="145">
+      <c r="C126">
         <v>-11.6</v>
       </c>
-      <c r="D126" s="145">
+      <c r="D126">
         <v>-12</v>
       </c>
-      <c r="E126" s="145">
+      <c r="E126">
         <v>-11.8</v>
       </c>
       <c r="F126" s="62"/>
@@ -4760,16 +4747,16 @@
       <c r="A127" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="B127" s="145">
-        <v>0</v>
-      </c>
-      <c r="C127" s="145">
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
         <v>404.4</v>
       </c>
-      <c r="D127" s="145">
-        <v>0</v>
-      </c>
-      <c r="E127" s="145">
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
         <v>-2.9</v>
       </c>
       <c r="F127" s="62"/>
@@ -4787,16 +4774,16 @@
       <c r="A128" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="B128" s="145">
+      <c r="B128">
         <v>-35.200000000000003</v>
       </c>
-      <c r="C128" s="145">
+      <c r="C128">
         <v>-36.299999999999997</v>
       </c>
-      <c r="D128" s="145">
+      <c r="D128">
         <v>-37.5</v>
       </c>
-      <c r="E128" s="145">
+      <c r="E128">
         <v>-330</v>
       </c>
       <c r="F128" s="62"/>
@@ -4814,16 +4801,16 @@
       <c r="A129" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="B129" s="145">
-        <v>0</v>
-      </c>
-      <c r="C129" s="145">
-        <v>0</v>
-      </c>
-      <c r="D129" s="145">
-        <v>0</v>
-      </c>
-      <c r="E129" s="145">
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
         <v>-36.4</v>
       </c>
       <c r="F129" s="62"/>
@@ -4841,16 +4828,16 @@
       <c r="A130" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="B130" s="145">
-        <v>0</v>
-      </c>
-      <c r="C130" s="145">
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
         <v>-103</v>
       </c>
-      <c r="D130" s="145">
+      <c r="D130">
         <v>-107.7</v>
       </c>
-      <c r="E130" s="145">
+      <c r="E130">
         <v>-120.5</v>
       </c>
       <c r="F130" s="62"/>
@@ -4868,19 +4855,19 @@
       <c r="A131" s="91" t="s">
         <v>189</v>
       </c>
-      <c r="B131" s="146">
+      <c r="B131" s="22">
         <f>SUM(B125:B130)</f>
         <v>-48</v>
       </c>
-      <c r="C131" s="146">
+      <c r="C131" s="22">
         <f t="shared" ref="C131:E131" si="4">SUM(C125:C130)</f>
         <v>235.7</v>
       </c>
-      <c r="D131" s="146">
+      <c r="D131" s="22">
         <f t="shared" si="4"/>
         <v>-190.8</v>
       </c>
-      <c r="E131" s="146">
+      <c r="E131" s="22">
         <f t="shared" si="4"/>
         <v>-515.59999999999991</v>
       </c>
@@ -4917,16 +4904,16 @@
       <c r="A133" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="B133" s="145">
+      <c r="B133">
         <v>282.3</v>
       </c>
-      <c r="C133" s="145">
+      <c r="C133">
         <v>82.9</v>
       </c>
-      <c r="D133" s="145">
+      <c r="D133">
         <v>147.19999999999999</v>
       </c>
-      <c r="E133" s="145">
+      <c r="E133">
         <v>56.5</v>
       </c>
       <c r="F133" s="62"/>
@@ -4944,19 +4931,19 @@
       <c r="A134" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="B134" s="145">
+      <c r="B134">
         <v>309.5</v>
       </c>
-      <c r="C134" s="145">
+      <c r="C134">
         <v>591.79999999999995</v>
       </c>
-      <c r="D134" s="145">
+      <c r="D134">
         <v>652.5</v>
       </c>
-      <c r="E134" s="145">
+      <c r="E134">
         <v>812.3</v>
       </c>
-      <c r="F134" s="147"/>
+      <c r="F134" s="62"/>
       <c r="H134" s="62"/>
       <c r="I134" s="62"/>
       <c r="J134" s="62"/>
@@ -4971,19 +4958,19 @@
       <c r="A135" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="B135" s="145">
-        <v>0</v>
-      </c>
-      <c r="C135" s="145">
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
         <v>-22.2</v>
       </c>
-      <c r="D135" s="145">
+      <c r="D135">
         <v>12.6</v>
       </c>
-      <c r="E135" s="145">
+      <c r="E135">
         <v>13.3</v>
       </c>
-      <c r="F135" s="147"/>
+      <c r="F135" s="62"/>
       <c r="H135" s="62"/>
       <c r="I135" s="62"/>
       <c r="J135" s="62"/>
@@ -5042,8 +5029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0551AB56-FBB7-3247-95D3-DF99AD86D439}">
   <dimension ref="A1:J236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="77" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+    <sheetView zoomScale="77" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6369,7 +6356,7 @@
         <v>625.29999999999995</v>
       </c>
       <c r="E92">
-        <f t="shared" si="10"/>
+        <f>SUM(E84+E76+E68+E60)</f>
         <v>679.3</v>
       </c>
     </row>
@@ -6659,8 +6646,8 @@
         <v>197</v>
       </c>
     </row>
-    <row r="110" spans="1:5" s="120" customFormat="1" ht="21">
-      <c r="A110" s="119"/>
+    <row r="110" spans="1:5" s="118" customFormat="1" ht="21">
+      <c r="A110" s="117"/>
     </row>
     <row r="111" spans="1:5" s="34" customFormat="1" ht="21">
       <c r="A111" s="34" t="s">
@@ -6822,7 +6809,7 @@
       <c r="D120">
         <v>-227.6</v>
       </c>
-      <c r="E120" s="121">
+      <c r="E120">
         <v>-293.2</v>
       </c>
     </row>
@@ -7174,14 +7161,14 @@
       </c>
     </row>
     <row r="148" spans="1:6" s="34" customFormat="1" ht="21">
-      <c r="A148" s="141" t="s">
+      <c r="A148" s="133" t="s">
         <v>203</v>
       </c>
-      <c r="B148" s="130"/>
-      <c r="C148" s="130"/>
-      <c r="D148" s="130"/>
-      <c r="E148" s="130"/>
-      <c r="F148" s="130"/>
+      <c r="B148" s="124"/>
+      <c r="C148" s="124"/>
+      <c r="D148" s="124"/>
+      <c r="E148" s="124"/>
+      <c r="F148" s="124"/>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="114"/>
@@ -7211,7 +7198,7 @@
       <c r="A151" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="B151" s="131">
+      <c r="B151" s="125">
         <f>0</f>
         <v>0</v>
       </c>
@@ -7229,7 +7216,7 @@
       <c r="A152" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="B152" s="131">
+      <c r="B152" s="125">
         <f>123.5</f>
         <v>123.5</v>
       </c>
@@ -7264,15 +7251,15 @@
         <f>E151+E152</f>
         <v>198</v>
       </c>
-      <c r="F153" s="132"/>
+      <c r="F153" s="126"/>
     </row>
     <row r="154" spans="1:6" s="1" customFormat="1">
-      <c r="A154" s="136"/>
-      <c r="B154" s="136"/>
-      <c r="C154" s="136"/>
-      <c r="D154" s="136"/>
-      <c r="E154" s="136"/>
-      <c r="F154" s="133"/>
+      <c r="A154" s="129"/>
+      <c r="B154" s="129"/>
+      <c r="C154" s="129"/>
+      <c r="D154" s="129"/>
+      <c r="E154" s="129"/>
+      <c r="F154" s="127"/>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="114" t="s">
@@ -7331,15 +7318,15 @@
         <f>E155+E156</f>
         <v>28.9</v>
       </c>
-      <c r="F157" s="132"/>
+      <c r="F157" s="126"/>
     </row>
     <row r="158" spans="1:6" s="1" customFormat="1">
-      <c r="A158" s="136"/>
-      <c r="B158" s="136"/>
-      <c r="C158" s="136"/>
-      <c r="D158" s="136"/>
-      <c r="E158" s="136"/>
-      <c r="F158" s="133"/>
+      <c r="A158" s="129"/>
+      <c r="B158" s="129"/>
+      <c r="C158" s="129"/>
+      <c r="D158" s="129"/>
+      <c r="E158" s="129"/>
+      <c r="F158" s="127"/>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="114" t="s">
@@ -7398,15 +7385,15 @@
         <f t="shared" si="16"/>
         <v>49.8</v>
       </c>
-      <c r="F161" s="132"/>
+      <c r="F161" s="126"/>
     </row>
     <row r="162" spans="1:6" s="1" customFormat="1">
-      <c r="A162" s="136"/>
-      <c r="B162" s="136"/>
-      <c r="C162" s="136"/>
-      <c r="D162" s="136"/>
-      <c r="E162" s="136"/>
-      <c r="F162" s="133"/>
+      <c r="A162" s="129"/>
+      <c r="B162" s="129"/>
+      <c r="C162" s="129"/>
+      <c r="D162" s="129"/>
+      <c r="E162" s="129"/>
+      <c r="F162" s="127"/>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="114" t="s">
@@ -7430,7 +7417,7 @@
       <c r="A164" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="B164" s="142">
+      <c r="B164" s="134">
         <f>16.3</f>
         <v>16.3</v>
       </c>
@@ -7465,17 +7452,17 @@
         <f t="shared" si="17"/>
         <v>191.8</v>
       </c>
-      <c r="F165" s="132"/>
+      <c r="F165" s="126"/>
     </row>
     <row r="166" spans="1:6" s="1" customFormat="1">
-      <c r="A166" s="136"/>
-      <c r="B166" s="136"/>
-      <c r="C166" s="136"/>
-      <c r="D166" s="136"/>
-      <c r="E166" s="136"/>
-      <c r="F166" s="133"/>
-    </row>
-    <row r="167" spans="1:6" s="129" customFormat="1">
+      <c r="A166" s="129"/>
+      <c r="B166" s="129"/>
+      <c r="C166" s="129"/>
+      <c r="D166" s="129"/>
+      <c r="E166" s="129"/>
+      <c r="F166" s="127"/>
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167" s="114" t="s">
         <v>204</v>
       </c>
@@ -7496,7 +7483,7 @@
       </c>
       <c r="F167" s="114"/>
     </row>
-    <row r="168" spans="1:6" s="129" customFormat="1">
+    <row r="168" spans="1:6">
       <c r="A168" s="114" t="s">
         <v>205</v>
       </c>
@@ -7540,12 +7527,12 @@
       <c r="F169" s="111"/>
     </row>
     <row r="170" spans="1:6" s="1" customFormat="1">
-      <c r="A170" s="136"/>
-      <c r="B170" s="136"/>
-      <c r="C170" s="136"/>
-      <c r="D170" s="136"/>
-      <c r="E170" s="136"/>
-      <c r="F170" s="133"/>
+      <c r="A170" s="129"/>
+      <c r="B170" s="129"/>
+      <c r="C170" s="129"/>
+      <c r="D170" s="129"/>
+      <c r="E170" s="129"/>
+      <c r="F170" s="127"/>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="114" t="s">
@@ -7606,15 +7593,15 @@
         <f>E171+E172</f>
         <v>0</v>
       </c>
-      <c r="F173" s="132"/>
+      <c r="F173" s="126"/>
     </row>
     <row r="174" spans="1:6" s="1" customFormat="1">
-      <c r="A174" s="136"/>
-      <c r="B174" s="136"/>
-      <c r="C174" s="136"/>
-      <c r="D174" s="136"/>
-      <c r="E174" s="136"/>
-      <c r="F174" s="133"/>
+      <c r="A174" s="129"/>
+      <c r="B174" s="129"/>
+      <c r="C174" s="129"/>
+      <c r="D174" s="129"/>
+      <c r="E174" s="129"/>
+      <c r="F174" s="127"/>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="114" t="s">
@@ -7674,15 +7661,15 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F177" s="132"/>
+      <c r="F177" s="126"/>
     </row>
     <row r="178" spans="1:6" s="1" customFormat="1">
-      <c r="A178" s="136"/>
-      <c r="B178" s="136"/>
-      <c r="C178" s="136"/>
-      <c r="D178" s="136"/>
-      <c r="E178" s="136"/>
-      <c r="F178" s="133"/>
+      <c r="A178" s="129"/>
+      <c r="B178" s="129"/>
+      <c r="C178" s="129"/>
+      <c r="D178" s="129"/>
+      <c r="E178" s="129"/>
+      <c r="F178" s="127"/>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="114" t="s">
@@ -7742,15 +7729,15 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F181" s="132"/>
+      <c r="F181" s="126"/>
     </row>
     <row r="182" spans="1:6" s="1" customFormat="1">
-      <c r="A182" s="136"/>
-      <c r="B182" s="136"/>
-      <c r="C182" s="136"/>
-      <c r="D182" s="136"/>
-      <c r="E182" s="136"/>
-      <c r="F182" s="133"/>
+      <c r="A182" s="129"/>
+      <c r="B182" s="129"/>
+      <c r="C182" s="129"/>
+      <c r="D182" s="129"/>
+      <c r="E182" s="129"/>
+      <c r="F182" s="127"/>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="114" t="s">
@@ -7806,15 +7793,15 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="F185" s="132"/>
+      <c r="F185" s="126"/>
     </row>
     <row r="186" spans="1:6" s="1" customFormat="1">
-      <c r="A186" s="136"/>
-      <c r="B186" s="136"/>
-      <c r="C186" s="136"/>
-      <c r="D186" s="136"/>
-      <c r="E186" s="136"/>
-      <c r="F186" s="133"/>
+      <c r="A186" s="129"/>
+      <c r="B186" s="129"/>
+      <c r="C186" s="129"/>
+      <c r="D186" s="129"/>
+      <c r="E186" s="129"/>
+      <c r="F186" s="127"/>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="114" t="s">
@@ -7843,10 +7830,10 @@
         <f>2386.4</f>
         <v>2386.4</v>
       </c>
-      <c r="C188" s="134">
+      <c r="C188" s="128">
         <v>3286.6</v>
       </c>
-      <c r="D188" s="134">
+      <c r="D188" s="128">
         <v>2426.6999999999998</v>
       </c>
       <c r="E188" s="114">
@@ -7874,15 +7861,15 @@
         <f>E187+E188</f>
         <v>2666.6</v>
       </c>
-      <c r="F189" s="132"/>
+      <c r="F189" s="126"/>
     </row>
     <row r="190" spans="1:6" s="1" customFormat="1">
-      <c r="A190" s="136"/>
-      <c r="B190" s="136"/>
-      <c r="C190" s="136"/>
-      <c r="D190" s="136"/>
-      <c r="E190" s="136"/>
-      <c r="F190" s="133"/>
+      <c r="A190" s="129"/>
+      <c r="B190" s="129"/>
+      <c r="C190" s="129"/>
+      <c r="D190" s="129"/>
+      <c r="E190" s="129"/>
+      <c r="F190" s="127"/>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="114" t="s">
@@ -7911,7 +7898,7 @@
         <f>7283.5</f>
         <v>7283.5</v>
       </c>
-      <c r="C192" s="134">
+      <c r="C192" s="128">
         <v>8345.6</v>
       </c>
       <c r="D192" s="114">
@@ -7942,15 +7929,15 @@
         <f t="shared" si="24"/>
         <v>10610.6</v>
       </c>
-      <c r="F193" s="132"/>
+      <c r="F193" s="126"/>
     </row>
     <row r="194" spans="1:6" s="1" customFormat="1">
-      <c r="A194" s="136"/>
-      <c r="B194" s="136"/>
-      <c r="C194" s="136"/>
-      <c r="D194" s="136"/>
-      <c r="E194" s="136"/>
-      <c r="F194" s="133"/>
+      <c r="A194" s="129"/>
+      <c r="B194" s="129"/>
+      <c r="C194" s="129"/>
+      <c r="D194" s="129"/>
+      <c r="E194" s="129"/>
+      <c r="F194" s="127"/>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="114" t="s">
@@ -7979,7 +7966,7 @@
         <f>1696.1</f>
         <v>1696.1</v>
       </c>
-      <c r="C196" s="134">
+      <c r="C196" s="128">
         <v>1811.7</v>
       </c>
       <c r="D196" s="114">
@@ -8010,15 +7997,15 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="F197" s="132"/>
+      <c r="F197" s="126"/>
     </row>
     <row r="198" spans="1:6" s="1" customFormat="1">
-      <c r="A198" s="136"/>
-      <c r="B198" s="136"/>
-      <c r="C198" s="136"/>
-      <c r="D198" s="136"/>
-      <c r="E198" s="136"/>
-      <c r="F198" s="133"/>
+      <c r="A198" s="129"/>
+      <c r="B198" s="129"/>
+      <c r="C198" s="129"/>
+      <c r="D198" s="129"/>
+      <c r="E198" s="129"/>
+      <c r="F198" s="127"/>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="114" t="s">
@@ -8078,15 +8065,15 @@
         <f t="shared" si="26"/>
         <v>681.4</v>
       </c>
-      <c r="F201" s="132"/>
+      <c r="F201" s="126"/>
     </row>
     <row r="202" spans="1:6" s="1" customFormat="1">
-      <c r="A202" s="136"/>
-      <c r="B202" s="136"/>
-      <c r="C202" s="136"/>
-      <c r="D202" s="136"/>
-      <c r="E202" s="136"/>
-      <c r="F202" s="133"/>
+      <c r="A202" s="129"/>
+      <c r="B202" s="129"/>
+      <c r="C202" s="129"/>
+      <c r="D202" s="129"/>
+      <c r="E202" s="129"/>
+      <c r="F202" s="127"/>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="114" t="s">
@@ -8146,15 +8133,15 @@
         <f t="shared" si="27"/>
         <v>85.6</v>
       </c>
-      <c r="F205" s="132"/>
+      <c r="F205" s="126"/>
     </row>
     <row r="206" spans="1:6" s="1" customFormat="1">
-      <c r="A206" s="136"/>
-      <c r="B206" s="136"/>
-      <c r="C206" s="136"/>
-      <c r="D206" s="136"/>
-      <c r="E206" s="136"/>
-      <c r="F206" s="133"/>
+      <c r="A206" s="129"/>
+      <c r="B206" s="129"/>
+      <c r="C206" s="129"/>
+      <c r="D206" s="129"/>
+      <c r="E206" s="129"/>
+      <c r="F206" s="127"/>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="114" t="s">
@@ -8214,65 +8201,65 @@
         <f>E207+E208</f>
         <v>882.1</v>
       </c>
-      <c r="F209" s="132"/>
-    </row>
-    <row r="210" spans="1:6" s="128" customFormat="1">
-      <c r="A210" s="143"/>
-      <c r="B210" s="143"/>
-      <c r="C210" s="143"/>
-      <c r="D210" s="143"/>
-      <c r="E210" s="143"/>
-      <c r="F210" s="135"/>
+      <c r="F209" s="126"/>
+    </row>
+    <row r="210" spans="1:6" s="1" customFormat="1">
+      <c r="A210" s="129"/>
+      <c r="B210" s="129"/>
+      <c r="C210" s="129"/>
+      <c r="D210" s="129"/>
+      <c r="E210" s="129"/>
+      <c r="F210" s="127"/>
     </row>
     <row r="211" spans="1:6" s="1" customFormat="1">
-      <c r="A211" s="136"/>
-      <c r="B211" s="136"/>
-      <c r="C211" s="136"/>
-      <c r="D211" s="136"/>
-      <c r="E211" s="136"/>
-      <c r="F211" s="133"/>
+      <c r="A211" s="129"/>
+      <c r="B211" s="129"/>
+      <c r="C211" s="129"/>
+      <c r="D211" s="129"/>
+      <c r="E211" s="129"/>
+      <c r="F211" s="127"/>
     </row>
     <row r="212" spans="1:6" s="1" customFormat="1">
-      <c r="A212" s="136" t="s">
+      <c r="A212" s="129" t="s">
         <v>142</v>
       </c>
-      <c r="B212" s="137">
+      <c r="B212" s="130">
         <f t="shared" ref="B212:C212" si="29">SUM(B208,B204,B200,B196,B192,B188,B184,B180,B176,B172,B164,B160,B156,B152+B168)</f>
         <v>12807.4</v>
       </c>
-      <c r="C212" s="137">
+      <c r="C212" s="130">
         <f t="shared" si="29"/>
         <v>15099.000000000002</v>
       </c>
-      <c r="D212" s="137">
+      <c r="D212" s="130">
         <f>SUM(D208,D204,D200,D196,D192,D188,D184,D180,D176,D172,D164,D160,D156,D152+D168)</f>
         <v>13660.9</v>
       </c>
-      <c r="E212" s="137">
+      <c r="E212" s="130">
         <f>SUM(E208,E204,E200,E196,E192,E188,E184,E180,E176,E172,E164,E160,E156,E152+E168)</f>
         <v>15419</v>
       </c>
-      <c r="F212" s="133"/>
+      <c r="F212" s="127"/>
     </row>
     <row r="213" spans="1:6" s="43" customFormat="1" ht="18">
-      <c r="A213" s="138" t="s">
+      <c r="A213" s="131" t="s">
         <v>133</v>
       </c>
-      <c r="B213" s="139">
+      <c r="B213" s="132">
         <f>B153+B157+B161+B165+B173+B177+B181+B185+B189+B193+B197+B201+B205+B209+B169</f>
         <v>13848.000000000002</v>
       </c>
-      <c r="C213" s="139">
+      <c r="C213" s="132">
         <f>C153+C157+C161+C165+C173+C177+C181+C185+C189+C193+C197+C201+C205+C209+C169</f>
         <v>16746.400000000001</v>
       </c>
-      <c r="D213" s="140" t="s">
+      <c r="D213" s="131" t="s">
         <v>197</v>
       </c>
-      <c r="E213" s="140" t="s">
+      <c r="E213" s="131" t="s">
         <v>197</v>
       </c>
-      <c r="F213" s="139"/>
+      <c r="F213" s="132"/>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="114"/>
@@ -8994,11 +8981,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="a24da686-42b0-49c4-a0af-a5e47bdd1be9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9158,26 +9146,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="a24da686-42b0-49c4-a0af-a5e47bdd1be9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BC6829E-4D7A-41A7-8B8F-DB9EB51F1B24}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99B871AF-C898-467A-A253-C228084E4244}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="a24da686-42b0-49c4-a0af-a5e47bdd1be9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9201,9 +9180,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99B871AF-C898-467A-A253-C228084E4244}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BC6829E-4D7A-41A7-8B8F-DB9EB51F1B24}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="a24da686-42b0-49c4-a0af-a5e47bdd1be9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>